--- a/To.Rpa.PrestamoDelExterior/CONFIG/Plantilla_Financiamiento_Del_Exterior.xlsx
+++ b/To.Rpa.PrestamoDelExterior/CONFIG/Plantilla_Financiamiento_Del_Exterior.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\EVEARM\Desktop\RPA_Financiamiento_Del_Exterior\Plantilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\DefaultAccount\Desktop\borrar\RPA_PrestamoDelExterior\To.Rpa.PrestamoDelExterior\CONFIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{113F4536-2D7C-4EDC-BF9C-13C43EA69819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="10515" windowHeight="2835" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="10515" windowHeight="2835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -17,13 +18,12 @@
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
     <sheet name="CONFIGURACIÓN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>TAMAÑO DE EMPRESA</t>
   </si>
@@ -91,9 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,79 +391,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,6 +559,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -595,6 +611,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,7 +803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -779,16 +812,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1" style="4"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1" style="4"/>
-    <col min="4" max="9" width="8.140625" customWidth="1" style="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1" style="1"/>
-    <col min="11" max="43" width="8.140625" customWidth="1" style="1"/>
-    <col min="44" max="16384" width="8.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="23.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="9" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="44" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="8.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
@@ -797,7 +830,7 @@
       </c>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" s="2" customFormat="1">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1259406148</v>
       </c>
@@ -808,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1251995322</v>
       </c>
@@ -817,7 +850,7 @@
       </c>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" s="2" customFormat="1">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>1259369684</v>
       </c>
@@ -826,7 +859,7 @@
       </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" s="2" customFormat="1">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1259376060</v>
       </c>
@@ -835,7 +868,7 @@
       </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" s="2" customFormat="1">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>1259373320</v>
       </c>
@@ -844,7 +877,7 @@
       </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" s="2" customFormat="1">
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>1259378268</v>
       </c>
@@ -853,7 +886,7 @@
       </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" s="2" customFormat="1">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>1259378128</v>
       </c>
@@ -862,7 +895,7 @@
       </c>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" s="2" customFormat="1">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1251921434</v>
       </c>
@@ -871,7 +904,7 @@
       </c>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" s="2" customFormat="1">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>1251902529</v>
       </c>
@@ -883,16 +916,15 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +936,7 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
@@ -921,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1259406148</v>
       </c>
@@ -932,9 +964,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" s="2" customFormat="1">
+      <c r="E2" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1251995322</v>
       </c>
@@ -947,7 +981,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" s="2" customFormat="1">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>1259369684</v>
       </c>
@@ -960,7 +994,7 @@
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" s="2" customFormat="1">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1259376060</v>
       </c>
@@ -973,7 +1007,7 @@
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" s="2" customFormat="1">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>1259373320</v>
       </c>
@@ -986,7 +1020,7 @@
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" s="2" customFormat="1">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>1259378268</v>
       </c>
@@ -999,7 +1033,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" s="2" customFormat="1">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>1259378128</v>
       </c>
@@ -1012,7 +1046,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" s="2" customFormat="1">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1251921434</v>
       </c>
@@ -1025,7 +1059,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" s="2" customFormat="1">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>1251902529</v>
       </c>
@@ -1040,12 +1074,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1054,12 +1088,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1073,7 +1106,7 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -1130,6 +1163,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>